--- a/data/trans_orig/P36_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3029C-5198-4902-BA65-14EBD56EA1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83982CE-150F-4AD1-ABA8-CDADB9EF8145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5612993D-3BEC-48E3-AA26-F4E2155F9C36}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3315138-1817-4EAF-8C15-360399A021C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población con una adherencia alta a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>NO</t>
@@ -104,28 +104,28 @@
     <t>93,57%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>15,14%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>84,38%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>18,29%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,100 +251,106 @@
     <t>16,03%</t>
   </si>
   <si>
-    <t>19,31%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -353,103 +359,109 @@
     <t>21,84%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>18,49%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,51%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E23D4-0B2D-472B-B5C3-EA0750EC8075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B17114-ABAB-4AB1-83E6-DCFF24977C86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1456,10 +1468,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -1468,13 +1480,13 @@
         <v>162184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -1483,13 +1495,13 @@
         <v>272011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1516,13 @@
         <v>575447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -1519,13 +1531,13 @@
         <v>554143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1388</v>
@@ -1534,13 +1546,13 @@
         <v>1129589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1620,13 @@
         <v>104966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
@@ -1623,13 +1635,13 @@
         <v>110818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -1638,13 +1650,13 @@
         <v>215784</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1671,13 @@
         <v>453670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>767</v>
@@ -1674,13 +1686,13 @@
         <v>456481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1277</v>
@@ -1689,13 +1701,13 @@
         <v>910151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1775,13 @@
         <v>139461</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>340</v>
@@ -1778,13 +1790,13 @@
         <v>182726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>544</v>
@@ -1793,13 +1805,13 @@
         <v>322187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1826,13 @@
         <v>499221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1243</v>
@@ -1829,13 +1841,13 @@
         <v>784405</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1989</v>
@@ -1844,13 +1856,13 @@
         <v>1283625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1930,13 @@
         <v>534081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>987</v>
@@ -1933,13 +1945,13 @@
         <v>665897</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1559</v>
@@ -1948,13 +1960,13 @@
         <v>1199978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1981,13 @@
         <v>2615845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4078</v>
@@ -1984,28 +1996,28 @@
         <v>2924619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6683</v>
       </c>
       <c r="N23" s="7">
-        <v>5540464</v>
+        <v>5540463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2059,7 @@
         <v>8242</v>
       </c>
       <c r="N24" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2061,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83982CE-150F-4AD1-ABA8-CDADB9EF8145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90350601-53C8-40FD-AB10-AB8473827F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3315138-1817-4EAF-8C15-360399A021C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{866A68F2-EB20-4966-9EC2-F4126F93D420}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B17114-ABAB-4AB1-83E6-DCFF24977C86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435B7D37-BA9E-45B5-825A-E131A9AD2975}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
